--- a/FIG.xlsx
+++ b/FIG.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6EF6852-D7D1-4555-9CB1-7840DA110F90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAE3E3F6-5E6D-4CFF-B807-47DA72866402}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21060" xr2:uid="{C92AF65A-1336-4C59-A653-BC9F02EF2826}"/>
+    <workbookView xWindow="225" yWindow="5325" windowWidth="38175" windowHeight="15240" xr2:uid="{C92AF65A-1336-4C59-A653-BC9F02EF2826}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Figma</t>
   </si>
@@ -48,6 +48,27 @@
   </si>
   <si>
     <t>IPO -&gt; F1 filing</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Shares</t>
+  </si>
+  <si>
+    <t>MC</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Debt</t>
+  </si>
+  <si>
+    <t>EV</t>
+  </si>
+  <si>
+    <t>Adobe wanted to buy Figma for 20 billion</t>
   </si>
 </sst>
 </file>
@@ -438,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB053DBF-CECE-4C11-8E39-C1091F4B4190}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -449,24 +470,55 @@
     <col min="1" max="1" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="H2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="H7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/FIG.xlsx
+++ b/FIG.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAE3E3F6-5E6D-4CFF-B807-47DA72866402}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5CA16FE-5A1B-408C-A143-813377426556}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="5325" windowWidth="38175" windowHeight="15240" xr2:uid="{C92AF65A-1336-4C59-A653-BC9F02EF2826}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21060" xr2:uid="{C92AF65A-1336-4C59-A653-BC9F02EF2826}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -75,7 +75,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,21 +84,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <u/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -121,10 +125,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -462,62 +467,63 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B6" sqref="B5:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4" customWidth="1"/>
+    <col min="1" max="1" width="4" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H3" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H4" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H4" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H5" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H5" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H6" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H6" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B8" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B9" s="2" t="s">
         <v>10</v>
       </c>
     </row>
